--- a/test-input/users.xlsx
+++ b/test-input/users.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="8">
   <si>
     <t>origin</t>
   </si>

--- a/test-input/users.xlsx
+++ b/test-input/users.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="8">
   <si>
     <t>origin</t>
   </si>
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
